--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Fiche de Stock 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Fiche de Stock 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9BF18-1AC7-4ECE-823D-A4D023DEF8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD861FA4-FFDA-45C4-AD2F-0650496CBC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Mois de JANVIER 2026</t>
+  </si>
+  <si>
+    <t>10 Compteurs DN 15/21 Destination Centre Beni Slimane</t>
   </si>
 </sst>
 </file>
@@ -973,6 +976,101 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,101 +1079,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1519,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,48 +1535,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -1584,36 +1587,36 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1625,36 +1628,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="12"/>
       <c r="K6" s="33"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
@@ -1685,7 +1688,7 @@
       <c r="K8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="60"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1766,13 +1769,15 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="21">
+        <v>7</v>
+      </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="23"/>
       <c r="F12" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="25"/>
@@ -1784,20 +1789,22 @@
       </c>
       <c r="L12" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="21">
+        <v>6</v>
+      </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="23"/>
       <c r="F13" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="25"/>
@@ -1809,7 +1816,7 @@
       </c>
       <c r="L13" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,13 +1848,15 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
       <c r="F15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="25"/>
@@ -1859,20 +1868,22 @@
       </c>
       <c r="L15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21">
+        <v>2</v>
+      </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
       <c r="F16" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="25"/>
@@ -1884,7 +1895,7 @@
       </c>
       <c r="L16" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1941,13 +1952,15 @@
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="21">
+        <v>4</v>
+      </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="23"/>
       <c r="F19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="25"/>
@@ -1959,7 +1972,7 @@
       </c>
       <c r="L19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1991,13 +2004,15 @@
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="21">
+        <v>5</v>
+      </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="23"/>
       <c r="F21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="25"/>
@@ -2009,20 +2024,22 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="21">
+        <v>8</v>
+      </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="23"/>
       <c r="F22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="25"/>
@@ -2034,7 +2051,7 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2116,13 +2133,15 @@
       <c r="A26" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="23"/>
       <c r="F26" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="25"/>
@@ -2134,20 +2153,22 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>19</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="21">
+        <v>2</v>
+      </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="23"/>
       <c r="F27" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="25"/>
@@ -2159,20 +2180,22 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="21">
+        <v>1</v>
+      </c>
       <c r="C28" s="22"/>
       <c r="D28" s="25"/>
       <c r="E28" s="23"/>
       <c r="F28" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="25"/>
@@ -2184,20 +2207,22 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>21</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21">
+        <v>3</v>
+      </c>
       <c r="C29" s="22"/>
       <c r="D29" s="25"/>
       <c r="E29" s="24"/>
       <c r="F29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="25"/>
@@ -2209,20 +2234,22 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>22</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="21">
+        <v>8</v>
+      </c>
       <c r="C30" s="22"/>
       <c r="D30" s="25"/>
       <c r="E30" s="23"/>
       <c r="F30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="25"/>
@@ -2234,7 +2261,7 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,13 +2318,15 @@
       <c r="A33" s="8">
         <v>25</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21">
+        <v>2</v>
+      </c>
       <c r="C33" s="22"/>
       <c r="D33" s="25"/>
       <c r="E33" s="23"/>
       <c r="F33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="22"/>
@@ -2309,20 +2338,22 @@
       </c>
       <c r="L33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>26</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="21">
+        <v>5</v>
+      </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="23"/>
       <c r="F34" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="25"/>
@@ -2334,20 +2365,22 @@
       </c>
       <c r="L34" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>27</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21">
+        <v>3</v>
+      </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="23"/>
       <c r="F35" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="22"/>
@@ -2359,32 +2392,36 @@
       </c>
       <c r="L35" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>28</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="21">
+        <v>1</v>
+      </c>
       <c r="C36" s="22"/>
       <c r="D36" s="25"/>
       <c r="E36" s="23"/>
       <c r="F36" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="30">
+        <v>18</v>
+      </c>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="22"/>
       <c r="K36" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2399,17 +2436,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="30">
+        <v>17</v>
+      </c>
       <c r="H37" s="25"/>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L37" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,7 +2505,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="46">
         <f>SUM(B9:B39)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C40" s="46">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
@@ -2482,11 +2521,11 @@
       </c>
       <c r="F40" s="45">
         <f>SUM(F9:F39)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
@@ -2502,11 +2541,11 @@
       </c>
       <c r="K40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2524,149 +2563,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62" t="s">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63" t="s">
+      <c r="H42" s="62"/>
+      <c r="I42" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="64"/>
+      <c r="J42" s="63"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="58">
+        <v>447</v>
+      </c>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="66"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71">
-        <v>100</v>
-      </c>
-      <c r="H44" s="72"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="72"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49">
+        <v>0</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="50"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="74">
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="76"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="56">
+        <v>0</v>
+      </c>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="59"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="77">
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="54">
         <f>L40+G45</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="72"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+        <v>96</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="50"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="77">
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="54">
         <f>G43+G44-G46</f>
-        <v>100</v>
-      </c>
-      <c r="H47" s="72"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="72"/>
+        <v>351</v>
+      </c>
+      <c r="H47" s="50"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="71">
-        <v>87</v>
-      </c>
-      <c r="H48" s="72"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49">
+        <v>341</v>
+      </c>
+      <c r="H48" s="50"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="50"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="78">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="51">
         <f>G47-G48</f>
-        <v>13</v>
-      </c>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="79"/>
+        <v>10</v>
+      </c>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -2689,44 +2728,49 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Gestion Stock 2026/Gestion de Stock Berrouaghia/Fiche de Stock 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Berrouaghia/Fiche de Stock 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD861FA4-FFDA-45C4-AD2F-0650496CBC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA490B-71C8-4A4F-BEBD-74BC7D73F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>10 Compteurs DN 15/21 Destination Centre Beni Slimane</t>
+  </si>
+  <si>
+    <t>1 Compteurs DN 15/21 Destination Antenne Zoubiria</t>
+  </si>
+  <si>
+    <t>1 Compteurs DN 15/21 Destination Antenne Robea</t>
+  </si>
+  <si>
+    <t>2 Compteurs DN 15/21 Destination Antenne Seghouane</t>
+  </si>
+  <si>
+    <t>16 Compteurs DN 15/21 Destination Antenne Tlathet Douairs</t>
   </si>
 </sst>
 </file>
@@ -976,28 +988,82 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,74 +1077,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1522,10 +1534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,48 +1547,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -1587,36 +1599,36 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1628,36 +1640,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="12"/>
       <c r="K6" s="33"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="76" t="s">
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="59" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1700,7 @@
       <c r="K8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="77"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2563,149 +2575,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62" t="s">
+      <c r="H42" s="63"/>
+      <c r="I42" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="63"/>
+      <c r="J42" s="64"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="58">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67">
         <v>447</v>
       </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49">
-        <v>0</v>
-      </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="71">
+        <v>0</v>
+      </c>
+      <c r="H44" s="72"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="72"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="56">
-        <v>0</v>
-      </c>
-      <c r="H45" s="57"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="59"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="74">
+        <v>0</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="76"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="54">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="77">
         <f>L40+G45</f>
         <v>96</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="50"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="54">
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="77">
         <f>G43+G44-G46</f>
         <v>351</v>
       </c>
-      <c r="H47" s="50"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="50"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49">
-        <v>341</v>
-      </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="71">
+        <v>321</v>
+      </c>
+      <c r="H48" s="72"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="51">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="78">
         <f>G47-G48</f>
-        <v>10</v>
-      </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="52"/>
+        <v>30</v>
+      </c>
+      <c r="H49" s="79"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="79"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -2733,44 +2745,64 @@
         <v>29</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
